--- a/chess_players.xlsx
+++ b/chess_players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigurd.saue/Desktop/M2S1/Code/Python/Projet/chess_tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA7A5E2-C10E-754C-A70E-AEB425A72FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B32C5D-2BDD-3040-A23A-28A2653DCEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
-    <t>Pays</t>
-  </si>
-  <si>
-    <t>Joueur</t>
-  </si>
-  <si>
     <t>Elo</t>
   </si>
   <si>
@@ -89,6 +83,12 @@
   </si>
   <si>
     <t>Laurent Fressinet</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Player</t>
   </si>
 </sst>
 </file>
@@ -458,27 +458,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2847</v>
@@ -486,10 +488,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2642</v>
@@ -497,10 +499,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2600</v>
@@ -508,10 +510,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2570</v>
@@ -519,10 +521,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2789</v>
@@ -530,10 +532,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2768</v>
@@ -541,10 +543,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2765</v>
@@ -552,10 +554,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2742</v>
@@ -563,10 +565,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2773</v>
@@ -574,10 +576,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2715</v>
@@ -585,10 +587,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2710</v>
@@ -596,10 +598,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2678</v>
@@ -607,10 +609,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>2736</v>
@@ -618,10 +620,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2723</v>
@@ -629,10 +631,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>2682</v>
@@ -640,10 +642,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2653</v>
